--- a/Docs/08-Prueba/TC-Encuesta.xlsx
+++ b/Docs/08-Prueba/TC-Encuesta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="7995" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="106" sheetId="1" r:id="rId1"/>
@@ -526,6 +526,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,53 +595,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -918,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F6"/>
     </sheetView>
   </sheetViews>
@@ -937,18 +937,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -985,7 +985,7 @@
     <row r="3" spans="1:10" ht="75">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="8">
@@ -1009,7 +1009,7 @@
     <row r="4" spans="1:10" ht="165">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="8">
         <v>2</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="8">
         <v>3</v>
       </c>
@@ -1055,7 +1055,7 @@
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="8">
         <v>4</v>
       </c>
@@ -1075,7 +1075,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>5</v>
       </c>
@@ -1089,7 +1089,7 @@
     <row r="8" spans="1:10">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="8">
         <v>6</v>
       </c>
@@ -1115,7 +1115,7 @@
     <row r="10" spans="1:10" ht="75">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="4">
@@ -1137,7 +1137,7 @@
     <row r="11" spans="1:10" ht="165">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="4">
         <v>2</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="4">
         <v>3</v>
       </c>
@@ -1193,7 +1193,7 @@
     <row r="14" spans="1:10" ht="75">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="4">
@@ -1215,7 +1215,7 @@
     <row r="15" spans="1:10" ht="165">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="4">
         <v>2</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="4">
         <v>3</v>
       </c>
@@ -1259,7 +1259,7 @@
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="4">
         <v>4</v>
       </c>
@@ -1277,7 +1277,7 @@
     <row r="18" spans="1:10">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="15"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="4">
         <v>5</v>
       </c>
@@ -1291,7 +1291,7 @@
     <row r="19" spans="1:10">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1342,17 +1342,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="1" t="s">
@@ -1384,13 +1384,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="4"/>
@@ -1401,9 +1401,9 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1412,9 +1412,9 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1423,9 +1423,9 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1434,9 +1434,9 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1445,9 +1445,9 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1496,17 +1496,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="1" t="s">
@@ -1538,13 +1538,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="4">
@@ -1557,9 +1557,9 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
@@ -1570,9 +1570,9 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4">
         <v>3</v>
       </c>
@@ -1583,9 +1583,9 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
@@ -1596,9 +1596,9 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4">
         <v>5</v>
       </c>
@@ -1609,9 +1609,9 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4">
         <v>6</v>
       </c>
@@ -1647,242 +1647,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="23" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="13">
         <v>3</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="13">
         <v>4</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="13">
         <v>5</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="13">
         <v>2</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="13">
         <v>3</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="13">
         <v>4</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="13">
         <v>5</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="13">
         <v>6</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1920,18 +1920,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1972,7 +1972,7 @@
       <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="4">
@@ -1988,7 +1988,7 @@
     <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
@@ -2002,7 +2002,7 @@
     <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4">
         <v>3</v>
       </c>
@@ -2016,7 +2016,7 @@
     <row r="6" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
@@ -2030,7 +2030,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4">
         <v>5</v>
       </c>
@@ -2044,7 +2044,7 @@
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4">
         <v>6</v>
       </c>
@@ -2097,18 +2097,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -2143,13 +2143,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="4">
@@ -2167,9 +2167,9 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="45">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
@@ -2187,9 +2187,9 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4">
         <v>3</v>
       </c>
@@ -2201,9 +2201,9 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
@@ -2215,9 +2215,9 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4">
         <v>5</v>
       </c>
@@ -2229,9 +2229,9 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4">
         <v>6</v>
       </c>
@@ -2269,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F6"/>
     </sheetView>
   </sheetViews>
@@ -2282,18 +2282,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -2328,13 +2328,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="13">
@@ -2346,9 +2346,9 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="13">
         <v>2</v>
       </c>
@@ -2358,9 +2358,9 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="13">
         <v>3</v>
       </c>
@@ -2370,9 +2370,9 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="13">
         <v>4</v>
       </c>
@@ -2382,9 +2382,9 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="13">
         <v>5</v>
       </c>
@@ -2396,9 +2396,9 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="13">
         <v>6</v>
       </c>
@@ -2450,17 +2450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="1" t="s">
@@ -2492,13 +2492,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="4">
@@ -2511,9 +2511,9 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
@@ -2524,9 +2524,9 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="4">
         <v>3</v>
       </c>
@@ -2537,9 +2537,9 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
@@ -2550,9 +2550,9 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4">
         <v>5</v>
       </c>
@@ -2563,9 +2563,9 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="4">
         <v>6</v>
       </c>
@@ -2603,7 +2603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
@@ -2615,17 +2615,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="1" t="s">
@@ -2657,13 +2657,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="4">
@@ -2678,9 +2678,9 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
@@ -2691,9 +2691,9 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="4">
         <v>3</v>
       </c>
@@ -2704,9 +2704,9 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
@@ -2717,9 +2717,9 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4">
         <v>5</v>
       </c>
@@ -2730,9 +2730,9 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="4">
         <v>6</v>
       </c>
@@ -2783,18 +2783,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -2829,13 +2829,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="45">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="4">
@@ -2853,9 +2853,9 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="165">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
@@ -2871,9 +2871,9 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="195">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4">
         <v>3</v>
       </c>
@@ -2891,9 +2891,9 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
@@ -2911,9 +2911,9 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2923,9 +2923,9 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2947,13 +2947,13 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="4">
@@ -2971,9 +2971,9 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="165">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="4">
         <v>2</v>
       </c>
@@ -2989,9 +2989,9 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="195">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="4">
         <v>3</v>
       </c>
@@ -3007,9 +3007,9 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="4">
         <v>4</v>
       </c>
@@ -3025,9 +3025,9 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3079,17 +3079,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="1" t="s">
@@ -3121,11 +3121,11 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="4">
@@ -3138,9 +3138,9 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
@@ -3151,9 +3151,9 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4">
         <v>3</v>
       </c>
@@ -3164,9 +3164,9 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
@@ -3177,9 +3177,9 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4">
         <v>5</v>
       </c>
@@ -3192,9 +3192,9 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4">
         <v>6</v>
       </c>
@@ -3244,19 +3244,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3286,20 +3286,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="4"/>
@@ -3307,14 +3307,14 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="4"/>
@@ -3322,45 +3322,45 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
